--- a/Faran Irfan/inpLinkedin.xlsx
+++ b/Faran Irfan/inpLinkedin.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DEV\Upwork\Faran Irfan\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DEV\Upwork\Faran Irfan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD684B82-A1E6-4442-8479-4F2C6F8A3D23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6519AADA-3450-4778-B882-F6B7C45D1046}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="12220" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="inp" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="87">
   <si>
     <t>Marketing Manager</t>
   </si>
@@ -256,109 +256,37 @@
     <t>Ohio, Vereinigte Staaten von Amerika</t>
   </si>
   <si>
+    <t>Vereinigte Staaten von Amerika</t>
+  </si>
+  <si>
+    <t>Senior Brand Manager</t>
+  </si>
+  <si>
+    <t>Curology</t>
+  </si>
+  <si>
+    <t>Vor 4 Wochen</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/brand-activation-manager-at-chipotle-mexican-grill-3984452361?position=1&amp;pageNum=0&amp;refId=Eqiu9XfwexM1iA7Wc98c9w%3D%3D&amp;trackingId=%2B%2Biw544Ejwdbq5TpXS1AnQ%3D%3D&amp;trk=public_jobs_jserp-result_search-card</t>
+  </si>
+  <si>
+    <t>Vor 6 Tagen</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/senior-brand-manager-at-curology-3951759902?position=2&amp;pageNum=0&amp;refId=Eqiu9XfwexM1iA7Wc98c9w%3D%3D&amp;trackingId=LMXKf3XJ16aq10LiV51c5A%3D%3D&amp;trk=public_jobs_jserp-result_search-card</t>
+  </si>
+  <si>
+    <t>Senior Manager, Social Media</t>
+  </si>
+  <si>
+    <t>Briogeo Hair Care</t>
+  </si>
+  <si>
     <t>Vor 1 Woche</t>
   </si>
   <si>
-    <t>https://www.linkedin.com/jobs/view/brand-activation-manager-at-chipotle-mexican-grill-3984452361?position=1&amp;pageNum=0&amp;refId=x4%2Bb2ewUTzE51WovdTxoow%3D%3D&amp;trackingId=gNGfW%2FW32%2BDcyfqQuzVGxQ%3D%3D&amp;trk=public_jobs_jserp-result_search-card</t>
-  </si>
-  <si>
-    <t>Social Media Strategy Manager</t>
-  </si>
-  <si>
-    <t>Bose Corporation</t>
-  </si>
-  <si>
-    <t>Vereinigte Staaten von Amerika</t>
-  </si>
-  <si>
-    <t>Vor 5 Tagen</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/jobs/view/social-media-strategy-manager-at-bose-corporation-3992335720?position=2&amp;pageNum=0&amp;refId=6u6s1Dobs8fs27%2F66N9xuw%3D%3D&amp;trackingId=hK1Uzgt0aqB64ZT0ediNAA%3D%3D&amp;trk=public_jobs_jserp-result_search-card</t>
-  </si>
-  <si>
-    <t>Senior Brand Manager</t>
-  </si>
-  <si>
-    <t>Curology</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/jobs/view/senior-brand-manager-at-curology-3951759902?position=3&amp;pageNum=0&amp;refId=6u6s1Dobs8fs27%2F66N9xuw%3D%3D&amp;trackingId=VLykrGv9UF%2FU2OsF%2F46XFA%3D%3D&amp;trk=public_jobs_jserp-result_search-card</t>
-  </si>
-  <si>
-    <t>Social Media Manager</t>
-  </si>
-  <si>
-    <t>Starface World</t>
-  </si>
-  <si>
-    <t>Vor 2 Tagen</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/jobs/view/social-media-manager-at-starface-world-3996685605?position=4&amp;pageNum=0&amp;refId=8pDdiLfFu7Bc7vBZutRgZw%3D%3D&amp;trackingId=pbWV6MTmm1X1Rl8NXFgxYg%3D%3D&amp;trk=public_jobs_jserp-result_search-card</t>
-  </si>
-  <si>
-    <t>Brand/GTM Strategy Manager</t>
-  </si>
-  <si>
-    <t>Framingham, Massachusetts, Vereinigte Staaten von Amerika</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/jobs/view/brand-gtm-strategy-manager-at-bose-corporation-3856243821?position=5&amp;pageNum=0&amp;refId=8pDdiLfFu7Bc7vBZutRgZw%3D%3D&amp;trackingId=e08akj8jEAi3625FD3GIZQ%3D%3D&amp;trk=public_jobs_jserp-result_search-card</t>
-  </si>
-  <si>
-    <t>Influencer Marketing Manager</t>
-  </si>
-  <si>
-    <t>Jack Taylor</t>
-  </si>
-  <si>
-    <t>Vor 2 Wochen</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/jobs/view/influencer-marketing-manager-at-jack-taylor-3981019123?position=6&amp;pageNum=0&amp;refId=8pDdiLfFu7Bc7vBZutRgZw%3D%3D&amp;trackingId=DLK9iggrKbaznrPWUP%2FQaA%3D%3D&amp;trk=public_jobs_jserp-result_search-card</t>
-  </si>
-  <si>
-    <t>OurRitual</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/jobs/view/social-media-manager-at-ourritual-3956366920?position=7&amp;pageNum=0&amp;refId=8pDdiLfFu7Bc7vBZutRgZw%3D%3D&amp;trackingId=cgunr4A7OwLeqvywt7%2Bi9A%3D%3D&amp;trk=public_jobs_jserp-result_search-card</t>
-  </si>
-  <si>
-    <t>Digital Media Manager</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/jobs/view/digital-media-manager-at-curology-3936919420?position=8&amp;pageNum=0&amp;refId=8pDdiLfFu7Bc7vBZutRgZw%3D%3D&amp;trackingId=7a5fB5SDO2wa0ntf0812kA%3D%3D&amp;trk=public_jobs_jserp-result_search-card</t>
-  </si>
-  <si>
-    <t>Product Marketing Manager, B2B</t>
-  </si>
-  <si>
-    <t>Calm</t>
-  </si>
-  <si>
-    <t>New York, Vereinigte Staaten von Amerika</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/jobs/view/product-marketing-manager-b2b-at-calm-3985084930?position=9&amp;pageNum=0&amp;refId=8pDdiLfFu7Bc7vBZutRgZw%3D%3D&amp;trackingId=MJczpvYTCQPeG%2FPsTlvTpw%3D%3D&amp;trk=public_jobs_jserp-result_search-card</t>
-  </si>
-  <si>
-    <t>Kalifornien, Vereinigte Staaten von Amerika</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/jobs/view/product-marketing-manager-b2b-at-calm-3985089162?position=10&amp;pageNum=0&amp;refId=KJW8GkQgYWBvC%2BJudTVE6A%3D%3D&amp;trackingId=0DB4fLT46UqRTuoD0lMwZA%3D%3D&amp;trk=public_jobs_jserp-result_search-card</t>
-  </si>
-  <si>
-    <t>Senior Vice President of Brand Strategy and Marketing</t>
-  </si>
-  <si>
-    <t>CAVA</t>
-  </si>
-  <si>
-    <t>Metropolregion Washington DC/Baltimore</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/jobs/view/senior-vice-president-of-brand-strategy-and-marketing-at-cava-3984594288?position=11&amp;pageNum=0&amp;refId=KJW8GkQgYWBvC%2BJudTVE6A%3D%3D&amp;trackingId=Ivx7bLMxy9oLvmXMkLTp%2FQ%3D%3D&amp;trk=public_jobs_jserp-result_search-card</t>
+    <t>https://www.linkedin.com/jobs/view/senior-manager-social-media-at-briogeo-hair-care-3999375896?position=3&amp;pageNum=0&amp;refId=cr8%2BD3gPnU3FUhdM5Zq9lw%3D%3D&amp;trackingId=qA49X%2BSgX8DlYWXzy1cTYg%3D%3D&amp;trk=public_jobs_jserp-result_search-card</t>
   </si>
 </sst>
 </file>
@@ -445,15 +373,15 @@
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Link" xfId="1" builtinId="8"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -737,274 +665,273 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="48.81640625" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.6328125" style="1"/>
+    <col min="1" max="1" width="35.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="48.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="3" t="s">
+    <row r="5" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="3" t="s">
+    <row r="6" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="3" t="s">
+    <row r="7" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="3" t="s">
+    <row r="8" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="3" t="s">
+    <row r="9" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="3" t="s">
+    <row r="10" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="3" t="s">
+    <row r="11" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="3" t="s">
+    <row r="12" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="3" t="s">
+    <row r="13" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="3" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="3" t="s">
+    <row r="14" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="3" t="s">
+    <row r="15" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="3" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="3" t="s">
+    <row r="16" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="3" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="3" t="s">
+    <row r="17" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="3" t="s">
+    <row r="18" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="3" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="3" t="s">
+    <row r="19" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="3" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="3" t="s">
+    <row r="20" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="3" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="5" t="s">
+    <row r="21" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="3" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="5" t="s">
+    <row r="22" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="3" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="5" t="s">
+    <row r="23" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="3" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="3" t="s">
+    <row r="24" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="3" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="3" t="s">
+    <row r="25" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="3" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="3" t="s">
+    <row r="26" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="3" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="3" t="s">
+    <row r="27" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B27" s="3" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="3" t="s">
+    <row r="28" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B28" s="3" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="3" t="s">
+    <row r="29" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B29" s="3" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="3" t="s">
+    <row r="30" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B30" s="3" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="3" t="s">
+    <row r="31" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B31" s="3" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="3" t="s">
+    <row r="32" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="B32" s="3" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A33" s="3" t="s">
+    <row r="33" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="B33" s="3" t="s">
         <v>72</v>
       </c>
     </row>
@@ -1050,535 +977,161 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B74AAF4-DC53-47AD-96B0-FF6E848DDF68}">
-  <dimension ref="A1:Z13"/>
+  <dimension ref="A1:Z5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
+      <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.7265625" customWidth="1"/>
-    <col min="2" max="2" width="22.6328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.08984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.08984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="26.1796875" customWidth="1"/>
+    <col min="1" max="1" width="23.7109375" customWidth="1"/>
+    <col min="2" max="2" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="26.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>73</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" t="s">
         <v>74</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" t="s">
         <v>75</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D3" t="s">
         <v>76</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="G2" s="1">
+      <c r="E3" t="s">
+        <v>81</v>
+      </c>
+      <c r="F3" t="s">
+        <v>82</v>
+      </c>
+      <c r="G3">
         <v>85</v>
       </c>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="1"/>
-      <c r="S2" s="1"/>
-      <c r="T2" s="1"/>
-      <c r="U2" s="1"/>
-      <c r="V2" s="1"/>
-      <c r="W2" s="1"/>
-      <c r="X2" s="1"/>
-      <c r="Y2" s="1"/>
-      <c r="Z2" s="1"/>
-    </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D3" s="1" t="s">
+      <c r="B4" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="G4" s="5">
         <v>80</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="G3" s="1">
-        <v>62</v>
-      </c>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="1"/>
-      <c r="R3" s="1"/>
-      <c r="S3" s="1"/>
-      <c r="T3" s="1"/>
-      <c r="U3" s="1"/>
-      <c r="V3" s="1"/>
-      <c r="W3" s="1"/>
-      <c r="X3" s="1"/>
-      <c r="Y3" s="1"/>
-      <c r="Z3" s="1"/>
-    </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="G4" s="1">
-        <v>80</v>
-      </c>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
-      <c r="Q4" s="1"/>
-      <c r="R4" s="1"/>
-      <c r="S4" s="1"/>
-      <c r="T4" s="1"/>
-      <c r="U4" s="1"/>
-      <c r="V4" s="1"/>
-      <c r="W4" s="1"/>
-      <c r="X4" s="1"/>
-      <c r="Y4" s="1"/>
-      <c r="Z4" s="1"/>
-    </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="G5" s="1">
-        <v>85</v>
-      </c>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
-      <c r="P5" s="1"/>
-      <c r="Q5" s="1"/>
-      <c r="R5" s="1"/>
-      <c r="S5" s="1"/>
-      <c r="T5" s="1"/>
-      <c r="U5" s="1"/>
-      <c r="V5" s="1"/>
-      <c r="W5" s="1"/>
-      <c r="X5" s="1"/>
-      <c r="Y5" s="1"/>
-      <c r="Z5" s="1"/>
-    </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="G6" s="1">
-        <v>60</v>
-      </c>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="1"/>
-      <c r="R6" s="1"/>
-      <c r="S6" s="1"/>
-      <c r="T6" s="1"/>
-      <c r="U6" s="1"/>
-      <c r="V6" s="1"/>
-      <c r="W6" s="1"/>
-      <c r="X6" s="1"/>
-      <c r="Y6" s="1"/>
-      <c r="Z6" s="1"/>
-    </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="G7" s="1">
-        <v>70</v>
-      </c>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="1"/>
-      <c r="R7" s="1"/>
-      <c r="S7" s="1"/>
-      <c r="T7" s="1"/>
-      <c r="U7" s="1"/>
-      <c r="V7" s="1"/>
-      <c r="W7" s="1"/>
-      <c r="X7" s="1"/>
-      <c r="Y7" s="1"/>
-      <c r="Z7" s="1"/>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="G8" s="1">
-        <v>85</v>
-      </c>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="1"/>
-      <c r="R8" s="1"/>
-      <c r="S8" s="1"/>
-      <c r="T8" s="1"/>
-      <c r="U8" s="1"/>
-      <c r="V8" s="1"/>
-      <c r="W8" s="1"/>
-      <c r="X8" s="1"/>
-      <c r="Y8" s="1"/>
-      <c r="Z8" s="1"/>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A9" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="G9" s="1">
-        <v>75</v>
-      </c>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="1"/>
-      <c r="R9" s="1"/>
-      <c r="S9" s="1"/>
-      <c r="T9" s="1"/>
-      <c r="U9" s="1"/>
-      <c r="V9" s="1"/>
-      <c r="W9" s="1"/>
-      <c r="X9" s="1"/>
-      <c r="Y9" s="1"/>
-      <c r="Z9" s="1"/>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A10" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="G10" s="1">
-        <v>90</v>
-      </c>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="1"/>
-      <c r="R10" s="1"/>
-      <c r="S10" s="1"/>
-      <c r="T10" s="1"/>
-      <c r="U10" s="1"/>
-      <c r="V10" s="1"/>
-      <c r="W10" s="1"/>
-      <c r="X10" s="1"/>
-      <c r="Y10" s="1"/>
-      <c r="Z10" s="1"/>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A11" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="G11" s="1">
-        <v>90</v>
-      </c>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="1"/>
-      <c r="R11" s="1"/>
-      <c r="S11" s="1"/>
-      <c r="T11" s="1"/>
-      <c r="U11" s="1"/>
-      <c r="V11" s="1"/>
-      <c r="W11" s="1"/>
-      <c r="X11" s="1"/>
-      <c r="Y11" s="1"/>
-      <c r="Z11" s="1"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A12" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="G12" s="1">
-        <v>80</v>
-      </c>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="1"/>
-      <c r="R12" s="1"/>
-      <c r="S12" s="1"/>
-      <c r="T12" s="1"/>
-      <c r="U12" s="1"/>
-      <c r="V12" s="1"/>
-      <c r="W12" s="1"/>
-      <c r="X12" s="1"/>
-      <c r="Y12" s="1"/>
-      <c r="Z12" s="1"/>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="1"/>
-      <c r="R13" s="1"/>
-      <c r="S13" s="1"/>
-      <c r="T13" s="1"/>
-      <c r="U13" s="1"/>
-      <c r="V13" s="1"/>
-      <c r="W13" s="1"/>
-      <c r="X13" s="1"/>
-      <c r="Y13" s="1"/>
-      <c r="Z13" s="1"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5"/>
+      <c r="S4" s="5"/>
+      <c r="T4" s="5"/>
+      <c r="U4" s="5"/>
+      <c r="V4" s="5"/>
+      <c r="W4" s="5"/>
+      <c r="X4" s="5"/>
+      <c r="Y4" s="5"/>
+      <c r="Z4" s="5"/>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="5"/>
+      <c r="S5" s="5"/>
+      <c r="T5" s="5"/>
+      <c r="U5" s="5"/>
+      <c r="V5" s="5"/>
+      <c r="W5" s="5"/>
+      <c r="X5" s="5"/>
+      <c r="Y5" s="5"/>
+      <c r="Z5" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/Faran Irfan/inpLinkedin.xlsx
+++ b/Faran Irfan/inpLinkedin.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DEV\Upwork\Faran Irfan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6519AADA-3450-4778-B882-F6B7C45D1046}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6DA093D-67E2-4A6B-9A98-B14031FA191A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="90">
   <si>
     <t>Marketing Manager</t>
   </si>
@@ -287,6 +287,15 @@
   </si>
   <si>
     <t>https://www.linkedin.com/jobs/view/senior-manager-social-media-at-briogeo-hair-care-3999375896?position=3&amp;pageNum=0&amp;refId=cr8%2BD3gPnU3FUhdM5Zq9lw%3D%3D&amp;trackingId=qA49X%2BSgX8DlYWXzy1cTYg%3D%3D&amp;trk=public_jobs_jserp-result_search-card</t>
+  </si>
+  <si>
+    <t>Ohio, United States</t>
+  </si>
+  <si>
+    <t>1 day ago</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/brand-activation-manager-at-chipotle-mexican-grill-4009889550?position=1&amp;pageNum=0&amp;refId=QJR3veGIBN4xc9KFBemfFg%3D%3D&amp;trackingId=ZTcdbjcVQ9%2BZN6eUG1Lq0Q%3D%3D&amp;trk=public_jobs_jserp-result_search-card</t>
   </si>
 </sst>
 </file>
@@ -977,7 +986,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B74AAF4-DC53-47AD-96B0-FF6E848DDF68}">
-  <dimension ref="A1:Z5"/>
+  <dimension ref="A1:Z6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -1064,55 +1073,50 @@
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+      <c r="A4" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" t="s">
         <v>83</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" t="s">
         <v>84</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" t="s">
         <v>76</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" t="s">
         <v>85</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" t="s">
         <v>86</v>
       </c>
-      <c r="G4" s="5">
+      <c r="G4">
         <v>80</v>
       </c>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
-      <c r="P4" s="5"/>
-      <c r="Q4" s="5"/>
-      <c r="R4" s="5"/>
-      <c r="S4" s="5"/>
-      <c r="T4" s="5"/>
-      <c r="U4" s="5"/>
-      <c r="V4" s="5"/>
-      <c r="W4" s="5"/>
-      <c r="X4" s="5"/>
-      <c r="Y4" s="5"/>
-      <c r="Z4" s="5"/>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
+      <c r="A5" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="G5" s="5">
+        <v>80</v>
+      </c>
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
       <c r="J5" s="5"/>
@@ -1133,6 +1137,34 @@
       <c r="Y5" s="5"/>
       <c r="Z5" s="5"/>
     </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="5"/>
+      <c r="S6" s="5"/>
+      <c r="T6" s="5"/>
+      <c r="U6" s="5"/>
+      <c r="V6" s="5"/>
+      <c r="W6" s="5"/>
+      <c r="X6" s="5"/>
+      <c r="Y6" s="5"/>
+      <c r="Z6" s="5"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
